--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44865</v>
       </c>
       <c r="B2" t="n">
-        <v>35.85719178960721</v>
+        <v>35.8572787957724</v>
       </c>
       <c r="C2" t="n">
-        <v>6.378454018738519</v>
+        <v>6.840831705073313</v>
       </c>
       <c r="D2" t="n">
-        <v>64.99901127914859</v>
+        <v>64.06448533489666</v>
       </c>
       <c r="E2" t="n">
         <v>60</v>
@@ -496,13 +496,13 @@
         <v>44869</v>
       </c>
       <c r="B3" t="n">
-        <v>40.37187441203555</v>
+        <v>40.37187275486591</v>
       </c>
       <c r="C3" t="n">
-        <v>11.88092868882408</v>
+        <v>12.05015728229577</v>
       </c>
       <c r="D3" t="n">
-        <v>71.81244328953234</v>
+        <v>69.36679482256322</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
@@ -516,13 +516,13 @@
         <v>44873</v>
       </c>
       <c r="B4" t="n">
-        <v>49.01987993177178</v>
+        <v>49.01987826689375</v>
       </c>
       <c r="C4" t="n">
-        <v>22.49642455283609</v>
+        <v>19.09629995403608</v>
       </c>
       <c r="D4" t="n">
-        <v>78.85349776200871</v>
+        <v>73.63424729936209</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
@@ -536,13 +536,13 @@
         <v>44880</v>
       </c>
       <c r="B5" t="n">
-        <v>30.05683352084779</v>
+        <v>30.23138135032377</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7844630722660867</v>
+        <v>1.42891353002642</v>
       </c>
       <c r="D5" t="n">
-        <v>59.71000773888003</v>
+        <v>59.04202269643163</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -556,13 +556,13 @@
         <v>44887</v>
       </c>
       <c r="B6" t="n">
-        <v>40.20248725257275</v>
+        <v>40.20238884440474</v>
       </c>
       <c r="C6" t="n">
-        <v>15.12135052462781</v>
+        <v>12.11070345853581</v>
       </c>
       <c r="D6" t="n">
-        <v>67.23269801004908</v>
+        <v>68.43025390906188</v>
       </c>
       <c r="E6" t="n">
         <v>48</v>
@@ -576,13 +576,13 @@
         <v>44894</v>
       </c>
       <c r="B7" t="n">
-        <v>68.12637931078714</v>
+        <v>68.12633621972276</v>
       </c>
       <c r="C7" t="n">
-        <v>39.92554063682011</v>
+        <v>40.59604267745637</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69808017464983</v>
+        <v>95.95911165395461</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -596,13 +596,13 @@
         <v>44897</v>
       </c>
       <c r="B8" t="n">
-        <v>49.28062150093661</v>
+        <v>49.28062170143784</v>
       </c>
       <c r="C8" t="n">
-        <v>21.82624598705243</v>
+        <v>19.12485687563995</v>
       </c>
       <c r="D8" t="n">
-        <v>76.92268526128963</v>
+        <v>75.65129535386818</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
@@ -616,13 +616,13 @@
         <v>44901</v>
       </c>
       <c r="B9" t="n">
-        <v>83.96841188778268</v>
+        <v>83.96849945160045</v>
       </c>
       <c r="C9" t="n">
-        <v>56.16438969140496</v>
+        <v>54.38457519267835</v>
       </c>
       <c r="D9" t="n">
-        <v>110.243874375377</v>
+        <v>111.1154451602966</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
@@ -636,13 +636,13 @@
         <v>44908</v>
       </c>
       <c r="B10" t="n">
-        <v>84.32648169508892</v>
+        <v>84.34079122003224</v>
       </c>
       <c r="C10" t="n">
-        <v>56.69354332186402</v>
+        <v>57.5269094080958</v>
       </c>
       <c r="D10" t="n">
-        <v>112.3707717722734</v>
+        <v>113.5227774785635</v>
       </c>
       <c r="E10" t="n">
         <v>66</v>
@@ -656,13 +656,13 @@
         <v>44915</v>
       </c>
       <c r="B11" t="n">
-        <v>91.38722624117842</v>
+        <v>91.38678667401982</v>
       </c>
       <c r="C11" t="n">
-        <v>63.11488425652112</v>
+        <v>63.60884382596476</v>
       </c>
       <c r="D11" t="n">
-        <v>121.2025081451333</v>
+        <v>120.5552887965002</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
@@ -676,13 +676,13 @@
         <v>44922</v>
       </c>
       <c r="B12" t="n">
-        <v>80.87631141956513</v>
+        <v>80.87623685494761</v>
       </c>
       <c r="C12" t="n">
-        <v>51.1923411648805</v>
+        <v>51.72477741120283</v>
       </c>
       <c r="D12" t="n">
-        <v>110.6628674727515</v>
+        <v>109.0967769279772</v>
       </c>
       <c r="E12" t="n">
         <v>36</v>
@@ -696,13 +696,13 @@
         <v>44929</v>
       </c>
       <c r="B13" t="n">
-        <v>62.23763504494249</v>
+        <v>62.2375085887836</v>
       </c>
       <c r="C13" t="n">
-        <v>33.88257422001089</v>
+        <v>34.7876091287479</v>
       </c>
       <c r="D13" t="n">
-        <v>91.73161085112318</v>
+        <v>90.07589437507222</v>
       </c>
       <c r="E13" t="n">
         <v>42</v>
@@ -716,13 +716,13 @@
         <v>44936</v>
       </c>
       <c r="B14" t="n">
-        <v>52.09511457320475</v>
+        <v>52.09490430834337</v>
       </c>
       <c r="C14" t="n">
-        <v>22.21205775668753</v>
+        <v>22.62555072627862</v>
       </c>
       <c r="D14" t="n">
-        <v>79.63318112776552</v>
+        <v>80.87820352205858</v>
       </c>
       <c r="E14" t="n">
         <v>72</v>
@@ -736,13 +736,13 @@
         <v>44943</v>
       </c>
       <c r="B15" t="n">
-        <v>51.62059260093822</v>
+        <v>51.90241203091405</v>
       </c>
       <c r="C15" t="n">
-        <v>24.89170377795532</v>
+        <v>21.04163415434465</v>
       </c>
       <c r="D15" t="n">
-        <v>82.78859527948124</v>
+        <v>78.78887186142612</v>
       </c>
       <c r="E15" t="n">
         <v>42</v>
@@ -756,13 +756,13 @@
         <v>44950</v>
       </c>
       <c r="B16" t="n">
-        <v>47.65554198934718</v>
+        <v>47.65931477281243</v>
       </c>
       <c r="C16" t="n">
-        <v>20.46898152854505</v>
+        <v>18.76680081635871</v>
       </c>
       <c r="D16" t="n">
-        <v>75.98830941120261</v>
+        <v>75.83943803001124</v>
       </c>
       <c r="E16" t="n">
         <v>42</v>
@@ -776,13 +776,13 @@
         <v>44957</v>
       </c>
       <c r="B17" t="n">
-        <v>43.27746181468443</v>
+        <v>43.27759885929314</v>
       </c>
       <c r="C17" t="n">
-        <v>15.49850254313189</v>
+        <v>13.70019671818952</v>
       </c>
       <c r="D17" t="n">
-        <v>72.77113751927831</v>
+        <v>74.4636823602667</v>
       </c>
       <c r="E17" t="n">
         <v>18</v>
@@ -796,13 +796,13 @@
         <v>44960</v>
       </c>
       <c r="B18" t="n">
-        <v>14.89109488463229</v>
+        <v>14.89001156527528</v>
       </c>
       <c r="C18" t="n">
-        <v>-15.04577167932833</v>
+        <v>-12.98037515616532</v>
       </c>
       <c r="D18" t="n">
-        <v>42.42732977821768</v>
+        <v>42.31746116134116</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
@@ -816,13 +816,13 @@
         <v>44964</v>
       </c>
       <c r="B19" t="n">
-        <v>30.98442358384801</v>
+        <v>30.98389292794644</v>
       </c>
       <c r="C19" t="n">
-        <v>3.205478482822838</v>
+        <v>3.420486815794132</v>
       </c>
       <c r="D19" t="n">
-        <v>59.82523898129983</v>
+        <v>60.93951254916445</v>
       </c>
       <c r="E19" t="n">
         <v>114</v>
@@ -836,13 +836,13 @@
         <v>44971</v>
       </c>
       <c r="B20" t="n">
-        <v>44.97553383726732</v>
+        <v>44.97565665867501</v>
       </c>
       <c r="C20" t="n">
-        <v>15.95266573585468</v>
+        <v>16.95327784061378</v>
       </c>
       <c r="D20" t="n">
-        <v>72.9939519360837</v>
+        <v>75.17168745479094</v>
       </c>
       <c r="E20" t="n">
         <v>138</v>
@@ -856,13 +856,13 @@
         <v>44980</v>
       </c>
       <c r="B21" t="n">
-        <v>28.24840640657091</v>
+        <v>28.35547558092119</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.891777236015505</v>
+        <v>-3.67260411602666</v>
       </c>
       <c r="D21" t="n">
-        <v>57.82088755800899</v>
+        <v>60.64516778544787</v>
       </c>
       <c r="E21" t="n">
         <v>180</v>
@@ -876,13 +876,13 @@
         <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>73.83340395101114</v>
+        <v>73.93265254832852</v>
       </c>
       <c r="C22" t="n">
-        <v>43.007073128756</v>
+        <v>42.88755938110852</v>
       </c>
       <c r="D22" t="n">
-        <v>104.1214026708105</v>
+        <v>105.2864217629126</v>
       </c>
       <c r="E22" t="n">
         <v>48</v>
@@ -896,13 +896,13 @@
         <v>44988</v>
       </c>
       <c r="B23" t="n">
-        <v>56.84489097999214</v>
+        <v>56.81417442733677</v>
       </c>
       <c r="C23" t="n">
-        <v>24.87188887048422</v>
+        <v>25.31308895331492</v>
       </c>
       <c r="D23" t="n">
-        <v>87.42354595666639</v>
+        <v>87.92604570978402</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
@@ -916,13 +916,13 @@
         <v>44992</v>
       </c>
       <c r="B24" t="n">
-        <v>78.22225787965979</v>
+        <v>78.17546888060204</v>
       </c>
       <c r="C24" t="n">
-        <v>46.55845910954863</v>
+        <v>47.09862904359994</v>
       </c>
       <c r="D24" t="n">
-        <v>108.6787392805898</v>
+        <v>111.4792922343129</v>
       </c>
       <c r="E24" t="n">
         <v>48</v>
@@ -936,13 +936,13 @@
         <v>44999</v>
       </c>
       <c r="B25" t="n">
-        <v>74.68020473682881</v>
+        <v>74.66237858747462</v>
       </c>
       <c r="C25" t="n">
-        <v>42.61704207148121</v>
+        <v>39.61163506645864</v>
       </c>
       <c r="D25" t="n">
-        <v>105.5853053670633</v>
+        <v>106.1115682181261</v>
       </c>
       <c r="E25" t="n">
         <v>48</v>
@@ -956,13 +956,13 @@
         <v>45006</v>
       </c>
       <c r="B26" t="n">
-        <v>73.72793899790159</v>
+        <v>73.72790762996883</v>
       </c>
       <c r="C26" t="n">
-        <v>42.15978886065641</v>
+        <v>40.84821878344903</v>
       </c>
       <c r="D26" t="n">
-        <v>106.3246265844379</v>
+        <v>106.6024957026488</v>
       </c>
       <c r="E26" t="n">
         <v>30</v>
@@ -976,13 +976,13 @@
         <v>45013</v>
       </c>
       <c r="B27" t="n">
-        <v>60.09184779208745</v>
+        <v>60.07982488483776</v>
       </c>
       <c r="C27" t="n">
-        <v>28.91996380229847</v>
+        <v>24.2576044479869</v>
       </c>
       <c r="D27" t="n">
-        <v>92.67557601215063</v>
+        <v>93.47053139950026</v>
       </c>
       <c r="E27" t="n">
         <v>48</v>
@@ -996,13 +996,13 @@
         <v>45020</v>
       </c>
       <c r="B28" t="n">
-        <v>47.22049591986172</v>
+        <v>47.19035226609073</v>
       </c>
       <c r="C28" t="n">
-        <v>12.43316096534347</v>
+        <v>14.26191048835559</v>
       </c>
       <c r="D28" t="n">
-        <v>80.46501763734057</v>
+        <v>81.03109576181716</v>
       </c>
       <c r="E28" t="n">
         <v>102</v>
@@ -1016,13 +1016,13 @@
         <v>45027</v>
       </c>
       <c r="B29" t="n">
-        <v>49.77615592074923</v>
+        <v>49.63962720838044</v>
       </c>
       <c r="C29" t="n">
-        <v>17.79701795349963</v>
+        <v>14.43590784492729</v>
       </c>
       <c r="D29" t="n">
-        <v>80.96299025357321</v>
+        <v>81.91730988179368</v>
       </c>
       <c r="E29" t="n">
         <v>66</v>
@@ -1036,13 +1036,13 @@
         <v>45034</v>
       </c>
       <c r="B30" t="n">
-        <v>55.46286829553614</v>
+        <v>55.46466536887588</v>
       </c>
       <c r="C30" t="n">
-        <v>22.5376598823919</v>
+        <v>23.63734927695671</v>
       </c>
       <c r="D30" t="n">
-        <v>87.02340624501434</v>
+        <v>87.83526351975846</v>
       </c>
       <c r="E30" t="n">
         <v>132</v>
@@ -1056,13 +1056,13 @@
         <v>45040</v>
       </c>
       <c r="B31" t="n">
-        <v>45.97505945878127</v>
+        <v>46.21556681254238</v>
       </c>
       <c r="C31" t="n">
-        <v>13.45231183136612</v>
+        <v>14.33471616755797</v>
       </c>
       <c r="D31" t="n">
-        <v>79.28868817326853</v>
+        <v>80.57396847754957</v>
       </c>
       <c r="E31" t="n">
         <v>174</v>
@@ -1076,13 +1076,13 @@
         <v>45048</v>
       </c>
       <c r="B32" t="n">
-        <v>81.49358806211032</v>
+        <v>81.49661456619287</v>
       </c>
       <c r="C32" t="n">
-        <v>47.0580123895857</v>
+        <v>44.56075317588878</v>
       </c>
       <c r="D32" t="n">
-        <v>116.340818192097</v>
+        <v>119.8726157917951</v>
       </c>
       <c r="E32" t="n">
         <v>72</v>
@@ -1096,13 +1096,13 @@
         <v>45062</v>
       </c>
       <c r="B33" t="n">
-        <v>31.10866898884549</v>
+        <v>31.12646994149379</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.536866287964242</v>
+        <v>-3.332629706769675</v>
       </c>
       <c r="D33" t="n">
-        <v>67.12791620635161</v>
+        <v>63.2744774886424</v>
       </c>
       <c r="E33" t="n">
         <v>48</v>
@@ -1177,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>972.7492367736622</v>
+        <v>972.1513021865086</v>
       </c>
       <c r="C2" t="n">
-        <v>31.18892811197048</v>
+        <v>31.17934095176658</v>
       </c>
       <c r="D2" t="n">
-        <v>26.84712044439914</v>
+        <v>26.83917011222894</v>
       </c>
       <c r="E2" t="n">
-        <v>2.713823225302582</v>
+        <v>2.713374022700405</v>
       </c>
       <c r="F2" t="n">
-        <v>1.700465705334103</v>
+        <v>1.699612421727852</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8963534224721551</v>
+        <v>0.8962366949193701</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1203,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5982.003275213352</v>
+        <v>5961.29455145713</v>
       </c>
       <c r="C3" t="n">
-        <v>77.34341132387006</v>
+        <v>77.20942009532989</v>
       </c>
       <c r="D3" t="n">
-        <v>59.67162306533687</v>
+        <v>59.58877483463805</v>
       </c>
       <c r="E3" t="n">
-        <v>1.283992960831432</v>
+        <v>1.283382001206107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7357755203518317</v>
+        <v>0.7343932941807909</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8546909934026496</v>
+        <v>0.85349947946654</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1229,22 +1229,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1629.452249679867</v>
+        <v>1630.018158307044</v>
       </c>
       <c r="C4" t="n">
-        <v>40.36647432808403</v>
+        <v>40.3734833561218</v>
       </c>
       <c r="D4" t="n">
-        <v>32.27104994018589</v>
+        <v>32.29694535450153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6553420043961685</v>
+        <v>0.6559550765456384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5381959156460653</v>
+        <v>0.5402635947568442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5286712461037754</v>
+        <v>0.5292486859084965</v>
       </c>
       <c r="H4" t="n">
         <v>0.6000000000000002</v>

--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,641 +473,681 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44865</v>
+        <v>44852</v>
       </c>
       <c r="B2" t="n">
-        <v>35.8572787957724</v>
+        <v>78.62683443764092</v>
       </c>
       <c r="C2" t="n">
-        <v>6.840831705073313</v>
+        <v>52.49271229233567</v>
       </c>
       <c r="D2" t="n">
-        <v>64.06448533489666</v>
+        <v>108.6507426485004</v>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B3" t="n">
-        <v>40.37187275486591</v>
+        <v>75.40390339520748</v>
       </c>
       <c r="C3" t="n">
-        <v>12.05015728229577</v>
+        <v>48.45092791936787</v>
       </c>
       <c r="D3" t="n">
-        <v>69.36679482256322</v>
+        <v>102.3565603870614</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44866</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44873</v>
+        <v>44865</v>
       </c>
       <c r="B4" t="n">
-        <v>49.01987826689375</v>
+        <v>35.08465455547216</v>
       </c>
       <c r="C4" t="n">
-        <v>19.09629995403608</v>
+        <v>7.503848581304494</v>
       </c>
       <c r="D4" t="n">
-        <v>73.63424729936209</v>
+        <v>63.30780141156623</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44880</v>
+        <v>44869</v>
       </c>
       <c r="B5" t="n">
-        <v>30.23138135032377</v>
+        <v>41.76283535937358</v>
       </c>
       <c r="C5" t="n">
-        <v>1.42891353002642</v>
+        <v>13.03974911407448</v>
       </c>
       <c r="D5" t="n">
-        <v>59.04202269643163</v>
+        <v>70.95671919265004</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="B6" t="n">
-        <v>40.20238884440474</v>
+        <v>51.77783672396446</v>
       </c>
       <c r="C6" t="n">
-        <v>12.11070345853581</v>
+        <v>22.97183371136818</v>
       </c>
       <c r="D6" t="n">
-        <v>68.43025390906188</v>
+        <v>80.57207469109164</v>
       </c>
       <c r="E6" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44880</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
       <c r="B7" t="n">
-        <v>68.12633621972276</v>
+        <v>32.91861281224302</v>
       </c>
       <c r="C7" t="n">
-        <v>40.59604267745637</v>
+        <v>2.690259095248755</v>
       </c>
       <c r="D7" t="n">
-        <v>95.95911165395461</v>
+        <v>60.56546001228739</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B8" t="n">
-        <v>49.28062170143784</v>
+        <v>41.86078391259098</v>
       </c>
       <c r="C8" t="n">
-        <v>19.12485687563995</v>
+        <v>13.57933979323088</v>
       </c>
       <c r="D8" t="n">
-        <v>75.65129535386818</v>
+        <v>69.91290495184312</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B9" t="n">
-        <v>83.96849945160045</v>
+        <v>69.77530588168477</v>
       </c>
       <c r="C9" t="n">
-        <v>54.38457519267835</v>
+        <v>39.93883454017733</v>
       </c>
       <c r="D9" t="n">
-        <v>111.1154451602966</v>
+        <v>98.17586064718769</v>
       </c>
       <c r="E9" t="n">
         <v>36</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="B10" t="n">
-        <v>84.34079122003224</v>
+        <v>49.07079522079484</v>
       </c>
       <c r="C10" t="n">
-        <v>57.5269094080958</v>
+        <v>19.9450298707211</v>
       </c>
       <c r="D10" t="n">
-        <v>113.5227774785635</v>
+        <v>75.72431695396683</v>
       </c>
       <c r="E10" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B11" t="n">
-        <v>91.38678667401982</v>
+        <v>85.35828657576209</v>
       </c>
       <c r="C11" t="n">
-        <v>63.60884382596476</v>
+        <v>58.4732587129219</v>
       </c>
       <c r="D11" t="n">
-        <v>120.5552887965002</v>
+        <v>112.7020480307297</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B12" t="n">
-        <v>80.87623685494761</v>
+        <v>86.48736120596718</v>
       </c>
       <c r="C12" t="n">
-        <v>51.72477741120283</v>
+        <v>59.1020141922149</v>
       </c>
       <c r="D12" t="n">
-        <v>109.0967769279772</v>
+        <v>115.7293970897256</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B13" t="n">
-        <v>62.2375085887836</v>
+        <v>92.32181952491365</v>
       </c>
       <c r="C13" t="n">
-        <v>34.7876091287479</v>
+        <v>64.37110986112835</v>
       </c>
       <c r="D13" t="n">
-        <v>90.07589437507222</v>
+        <v>120.5986724264645</v>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
       <c r="B14" t="n">
-        <v>52.09490430834337</v>
+        <v>81.51897576482513</v>
       </c>
       <c r="C14" t="n">
-        <v>22.62555072627862</v>
+        <v>53.36205969175607</v>
       </c>
       <c r="D14" t="n">
-        <v>80.87820352205858</v>
+        <v>111.0619794045982</v>
       </c>
       <c r="E14" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
       <c r="B15" t="n">
-        <v>51.90241203091405</v>
+        <v>64.58069140638938</v>
       </c>
       <c r="C15" t="n">
-        <v>21.04163415434465</v>
+        <v>35.97622561452921</v>
       </c>
       <c r="D15" t="n">
-        <v>78.78887186142612</v>
+        <v>94.2055040883063</v>
       </c>
       <c r="E15" t="n">
         <v>42</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44936</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
       <c r="B16" t="n">
-        <v>47.65931477281243</v>
+        <v>52.70075001398816</v>
       </c>
       <c r="C16" t="n">
-        <v>18.76680081635871</v>
+        <v>22.40747041330819</v>
       </c>
       <c r="D16" t="n">
-        <v>75.83943803001124</v>
+        <v>81.06013489514594</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44943</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
       <c r="B17" t="n">
-        <v>43.27759885929314</v>
+        <v>52.87097332635938</v>
       </c>
       <c r="C17" t="n">
-        <v>13.70019671818952</v>
+        <v>24.33412124788397</v>
       </c>
       <c r="D17" t="n">
-        <v>74.4636823602667</v>
+        <v>81.82942074501521</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44950</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44960</v>
+        <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>14.89001156527528</v>
+        <v>49.20339536234107</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.98037515616532</v>
+        <v>22.42715276084059</v>
       </c>
       <c r="D18" t="n">
-        <v>42.31746116134116</v>
+        <v>77.82985182539326</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44957</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
       <c r="B19" t="n">
-        <v>30.98389292794644</v>
+        <v>44.08892258519385</v>
       </c>
       <c r="C19" t="n">
-        <v>3.420486815794132</v>
+        <v>14.38679173194353</v>
       </c>
       <c r="D19" t="n">
-        <v>60.93951254916445</v>
+        <v>75.55708918423987</v>
       </c>
       <c r="E19" t="n">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44971</v>
+        <v>44960</v>
       </c>
       <c r="B20" t="n">
-        <v>44.97565665867501</v>
+        <v>15.25128674638853</v>
       </c>
       <c r="C20" t="n">
-        <v>16.95327784061378</v>
+        <v>-12.70968385462502</v>
       </c>
       <c r="D20" t="n">
-        <v>75.17168745479094</v>
+        <v>45.74487535327589</v>
       </c>
       <c r="E20" t="n">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44980</v>
+        <v>44964</v>
       </c>
       <c r="B21" t="n">
-        <v>28.35547558092119</v>
+        <v>32.11780745183938</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.67260411602666</v>
+        <v>3.320228282075183</v>
       </c>
       <c r="D21" t="n">
-        <v>60.64516778544787</v>
+        <v>60.54655740048421</v>
       </c>
       <c r="E21" t="n">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44985</v>
+        <v>44971</v>
       </c>
       <c r="B22" t="n">
-        <v>73.93265254832852</v>
+        <v>47.97487640251683</v>
       </c>
       <c r="C22" t="n">
-        <v>42.88755938110852</v>
+        <v>18.90809805767068</v>
       </c>
       <c r="D22" t="n">
-        <v>105.2864217629126</v>
+        <v>78.32543411353979</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>44980</v>
       </c>
       <c r="B23" t="n">
-        <v>56.81417442733677</v>
+        <v>31.24090295276951</v>
       </c>
       <c r="C23" t="n">
-        <v>25.31308895331492</v>
+        <v>0.8762087337789877</v>
       </c>
       <c r="D23" t="n">
-        <v>87.92604570978402</v>
+        <v>60.05818154986041</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B24" t="n">
-        <v>78.17546888060204</v>
+        <v>75.74208014624969</v>
       </c>
       <c r="C24" t="n">
-        <v>47.09862904359994</v>
+        <v>44.70388373574232</v>
       </c>
       <c r="D24" t="n">
-        <v>111.4792922343129</v>
+        <v>107.5759615910184</v>
       </c>
       <c r="E24" t="n">
         <v>48</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44999</v>
+        <v>44988</v>
       </c>
       <c r="B25" t="n">
-        <v>74.66237858747462</v>
+        <v>56.22373958739172</v>
       </c>
       <c r="C25" t="n">
-        <v>39.61163506645864</v>
+        <v>24.62157567914234</v>
       </c>
       <c r="D25" t="n">
-        <v>106.1115682181261</v>
+        <v>88.05852789712948</v>
       </c>
       <c r="E25" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B26" t="n">
-        <v>73.72790762996883</v>
+        <v>78.73457413440516</v>
       </c>
       <c r="C26" t="n">
-        <v>40.84821878344903</v>
+        <v>44.14362992875614</v>
       </c>
       <c r="D26" t="n">
-        <v>106.6024957026488</v>
+        <v>111.3074690122984</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
       <c r="B27" t="n">
-        <v>60.07982488483776</v>
+        <v>73.70377019293714</v>
       </c>
       <c r="C27" t="n">
-        <v>24.2576044479869</v>
+        <v>41.91308360979909</v>
       </c>
       <c r="D27" t="n">
-        <v>93.47053139950026</v>
+        <v>107.8233999871936</v>
       </c>
       <c r="E27" t="n">
         <v>48</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B28" t="n">
-        <v>47.19035226609073</v>
+        <v>74.83204277680231</v>
       </c>
       <c r="C28" t="n">
-        <v>14.26191048835559</v>
+        <v>43.61533841039918</v>
       </c>
       <c r="D28" t="n">
-        <v>81.03109576181716</v>
+        <v>106.3023793688369</v>
       </c>
       <c r="E28" t="n">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B29" t="n">
-        <v>49.63962720838044</v>
+        <v>61.06840357279182</v>
       </c>
       <c r="C29" t="n">
-        <v>14.43590784492729</v>
+        <v>28.04207061375534</v>
       </c>
       <c r="D29" t="n">
-        <v>81.91730988179368</v>
+        <v>96.66187271244557</v>
       </c>
       <c r="E29" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B30" t="n">
-        <v>55.46466536887588</v>
+        <v>48.81411257166507</v>
       </c>
       <c r="C30" t="n">
-        <v>23.63734927695671</v>
+        <v>16.84831582858276</v>
       </c>
       <c r="D30" t="n">
-        <v>87.83526351975846</v>
+        <v>83.0095564338982</v>
       </c>
       <c r="E30" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B31" t="n">
-        <v>46.21556681254238</v>
+        <v>50.68014340952328</v>
       </c>
       <c r="C31" t="n">
-        <v>14.33471616755797</v>
+        <v>18.59200553094302</v>
       </c>
       <c r="D31" t="n">
-        <v>80.57396847754957</v>
+        <v>83.00602583985493</v>
       </c>
       <c r="E31" t="n">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B32" t="n">
-        <v>81.49661456619287</v>
+        <v>56.21008871964865</v>
       </c>
       <c r="C32" t="n">
-        <v>44.56075317588878</v>
+        <v>23.57951403042304</v>
       </c>
       <c r="D32" t="n">
-        <v>119.8726157917951</v>
+        <v>87.24623930602539</v>
       </c>
       <c r="E32" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B33" t="n">
+        <v>48.81274227713457</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15.67948048471095</v>
+      </c>
+      <c r="D33" t="n">
+        <v>82.92594417233579</v>
+      </c>
+      <c r="E33" t="n">
+        <v>174</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45034</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45048</v>
+      </c>
+      <c r="B34" t="n">
+        <v>82.77930492426026</v>
+      </c>
+      <c r="C34" t="n">
+        <v>47.14024200319515</v>
+      </c>
+      <c r="D34" t="n">
+        <v>116.1329179879964</v>
+      </c>
+      <c r="E34" t="n">
+        <v>72</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B33" t="n">
-        <v>31.12646994149379</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-3.332629706769675</v>
-      </c>
-      <c r="D33" t="n">
-        <v>63.2744774886424</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="B35" t="n">
+        <v>30.65900887243849</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-5.682156842373755</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64.72165108561092</v>
+      </c>
+      <c r="E35" t="n">
         <v>48</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1177,22 +1217,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>972.1513021865086</v>
+        <v>972.8477197050793</v>
       </c>
       <c r="C2" t="n">
-        <v>31.17934095176658</v>
+        <v>31.19050688438838</v>
       </c>
       <c r="D2" t="n">
-        <v>26.83917011222894</v>
+        <v>27.07716422848716</v>
       </c>
       <c r="E2" t="n">
-        <v>2.713374022700405</v>
+        <v>2.723276260121286</v>
       </c>
       <c r="F2" t="n">
-        <v>1.699612421727852</v>
+        <v>1.721849304076814</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8962366949193701</v>
+        <v>0.9070026100032424</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1203,22 +1243,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5961.29455145713</v>
+        <v>5755.157218165455</v>
       </c>
       <c r="C3" t="n">
-        <v>77.20942009532989</v>
+        <v>75.86275250849691</v>
       </c>
       <c r="D3" t="n">
-        <v>59.58877483463805</v>
+        <v>59.05992246529348</v>
       </c>
       <c r="E3" t="n">
-        <v>1.283382001206107</v>
+        <v>1.285999671979119</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7343932941807909</v>
+        <v>0.7194669984072726</v>
       </c>
       <c r="G3" t="n">
-        <v>0.85349947946654</v>
+        <v>0.8515894901591454</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1229,25 +1269,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1630.018158307044</v>
+        <v>1537.096913096369</v>
       </c>
       <c r="C4" t="n">
-        <v>40.3734833561218</v>
+        <v>39.20582754000186</v>
       </c>
       <c r="D4" t="n">
-        <v>32.29694535450153</v>
+        <v>31.62843394834492</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6559550765456384</v>
+        <v>0.6414169143175433</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5402635947568442</v>
+        <v>0.5354952123528571</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5292486859084965</v>
+        <v>0.5115767010143722</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6000000000000002</v>
+        <v>0.6296296296296298</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,76 +473,76 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B2" t="n">
+        <v>75.72469338060969</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47.12874718515688</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102.8094622676169</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B2" t="n">
-        <v>78.62683443764092</v>
-      </c>
-      <c r="C2" t="n">
-        <v>52.49271229233567</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.6507426485004</v>
-      </c>
-      <c r="E2" t="n">
-        <v>72</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33.41864106682729</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.704312249837714</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.08403423129025</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B3" t="n">
-        <v>75.40390339520748</v>
-      </c>
-      <c r="C3" t="n">
-        <v>48.45092791936787</v>
-      </c>
-      <c r="D3" t="n">
-        <v>102.3565603870614</v>
-      </c>
-      <c r="E3" t="n">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B4" t="n">
-        <v>35.08465455547216</v>
+        <v>41.1526747466776</v>
       </c>
       <c r="C4" t="n">
-        <v>7.503848581304494</v>
+        <v>10.74546805481891</v>
       </c>
       <c r="D4" t="n">
-        <v>63.30780141156623</v>
+        <v>69.32487301811835</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B5" t="n">
-        <v>41.76283535937358</v>
+        <v>49.73399575817466</v>
       </c>
       <c r="C5" t="n">
-        <v>13.03974911407448</v>
+        <v>22.9835544426219</v>
       </c>
       <c r="D5" t="n">
-        <v>70.95671919265004</v>
+        <v>78.4732696556066</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
@@ -553,99 +553,99 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.96629024594764</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.026475372858114</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59.07128859315221</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B6" t="n">
-        <v>51.77783672396446</v>
-      </c>
-      <c r="C6" t="n">
-        <v>22.97183371136818</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.57207469109164</v>
-      </c>
-      <c r="E6" t="n">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B7" t="n">
+        <v>40.50930429563606</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.27379139282125</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67.60154324119408</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B7" t="n">
-        <v>32.91861281224302</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.690259095248755</v>
-      </c>
-      <c r="D7" t="n">
-        <v>60.56546001228739</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67.64060466890766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>38.18085426701325</v>
+      </c>
+      <c r="D8" t="n">
+        <v>94.17170451920016</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44887</v>
-      </c>
-      <c r="B8" t="n">
-        <v>41.86078391259098</v>
-      </c>
-      <c r="C8" t="n">
-        <v>13.57933979323088</v>
-      </c>
-      <c r="D8" t="n">
-        <v>69.91290495184312</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44880</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B9" t="n">
+        <v>49.14439692823328</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19.91149196998485</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.18635055233209</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B9" t="n">
-        <v>69.77530588168477</v>
-      </c>
-      <c r="C9" t="n">
-        <v>39.93883454017733</v>
-      </c>
-      <c r="D9" t="n">
-        <v>98.17586064718769</v>
-      </c>
-      <c r="E9" t="n">
-        <v>36</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B10" t="n">
-        <v>49.07079522079484</v>
+        <v>84.02327102669432</v>
       </c>
       <c r="C10" t="n">
-        <v>19.9450298707211</v>
+        <v>56.17133782349138</v>
       </c>
       <c r="D10" t="n">
-        <v>75.72431695396683</v>
+        <v>113.4114576362426</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>44894</v>
@@ -653,199 +653,199 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B11" t="n">
+        <v>84.78385494078961</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57.5783466425184</v>
+      </c>
+      <c r="D11" t="n">
+        <v>113.9603631013612</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B11" t="n">
-        <v>85.35828657576209</v>
-      </c>
-      <c r="C11" t="n">
-        <v>58.4732587129219</v>
-      </c>
-      <c r="D11" t="n">
-        <v>112.7020480307297</v>
-      </c>
-      <c r="E11" t="n">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91.13295405855405</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62.8750050002176</v>
+      </c>
+      <c r="D12" t="n">
+        <v>117.8822291878877</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B12" t="n">
-        <v>86.48736120596718</v>
-      </c>
-      <c r="C12" t="n">
-        <v>59.1020141922149</v>
-      </c>
-      <c r="D12" t="n">
-        <v>115.7293970897256</v>
-      </c>
-      <c r="E12" t="n">
-        <v>66</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44915</v>
+        <v>44922</v>
       </c>
       <c r="B13" t="n">
-        <v>92.32181952491365</v>
+        <v>81.37510029354587</v>
       </c>
       <c r="C13" t="n">
-        <v>64.37110986112835</v>
+        <v>54.9993690185587</v>
       </c>
       <c r="D13" t="n">
-        <v>120.5986724264645</v>
+        <v>113.0323432361809</v>
       </c>
       <c r="E13" t="n">
         <v>36</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44908</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63.74392418268928</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33.82358228450308</v>
+      </c>
+      <c r="D14" t="n">
+        <v>91.89277863405695</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44922</v>
-      </c>
-      <c r="B14" t="n">
-        <v>81.51897576482513</v>
-      </c>
-      <c r="C14" t="n">
-        <v>53.36205969175607</v>
-      </c>
-      <c r="D14" t="n">
-        <v>111.0619794045982</v>
-      </c>
-      <c r="E14" t="n">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44915</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B15" t="n">
+        <v>52.22528224038423</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.99609980505998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>81.80212692474308</v>
+      </c>
+      <c r="E15" t="n">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B15" t="n">
-        <v>64.58069140638938</v>
-      </c>
-      <c r="C15" t="n">
-        <v>35.97622561452921</v>
-      </c>
-      <c r="D15" t="n">
-        <v>94.2055040883063</v>
-      </c>
-      <c r="E15" t="n">
-        <v>42</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B16" t="n">
+        <v>51.02559775181559</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.67175884769242</v>
+      </c>
+      <c r="D16" t="n">
+        <v>82.43473277395603</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B16" t="n">
-        <v>52.70075001398816</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22.40747041330819</v>
-      </c>
-      <c r="D16" t="n">
-        <v>81.06013489514594</v>
-      </c>
-      <c r="E16" t="n">
-        <v>72</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44943</v>
+        <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>52.87097332635938</v>
+        <v>47.44180415973083</v>
       </c>
       <c r="C17" t="n">
-        <v>24.33412124788397</v>
+        <v>18.01072571630893</v>
       </c>
       <c r="D17" t="n">
-        <v>81.82942074501521</v>
+        <v>77.26073396952287</v>
       </c>
       <c r="E17" t="n">
         <v>42</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44936</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B18" t="n">
+        <v>43.24036577266681</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13.88752016357071</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71.61096161604969</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B18" t="n">
-        <v>49.20339536234107</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22.42715276084059</v>
-      </c>
-      <c r="D18" t="n">
-        <v>77.82985182539326</v>
-      </c>
-      <c r="E18" t="n">
-        <v>42</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14.98227176824874</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-14.08401183343112</v>
+      </c>
+      <c r="D19" t="n">
+        <v>44.21141002139436</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B19" t="n">
-        <v>44.08892258519385</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14.38679173194353</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75.55708918423987</v>
-      </c>
-      <c r="E19" t="n">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B20" t="n">
-        <v>15.25128674638853</v>
+        <v>31.13599029109813</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.70968385462502</v>
+        <v>3.558359165043575</v>
       </c>
       <c r="D20" t="n">
-        <v>45.74487535327589</v>
+        <v>58.98000349502887</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>44957</v>
@@ -853,59 +853,59 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B21" t="n">
+        <v>44.79251378658782</v>
+      </c>
+      <c r="C21" t="n">
+        <v>16.38997905856312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>78.2565683701058</v>
+      </c>
+      <c r="E21" t="n">
+        <v>138</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B21" t="n">
-        <v>32.11780745183938</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3.320228282075183</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60.54655740048421</v>
-      </c>
-      <c r="E21" t="n">
-        <v>114</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B22" t="n">
-        <v>47.97487640251683</v>
+        <v>29.55374741828815</v>
       </c>
       <c r="C22" t="n">
-        <v>18.90809805767068</v>
+        <v>-2.056084089264757</v>
       </c>
       <c r="D22" t="n">
-        <v>78.32543411353979</v>
+        <v>60.79105548200625</v>
       </c>
       <c r="E22" t="n">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B23" t="n">
-        <v>31.24090295276951</v>
+        <v>74.80347687004927</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8762087337789877</v>
+        <v>42.73588506490002</v>
       </c>
       <c r="D23" t="n">
-        <v>60.05818154986041</v>
+        <v>107.2094706404001</v>
       </c>
       <c r="E23" t="n">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44978</v>
@@ -913,39 +913,39 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B24" t="n">
+        <v>58.9691491710579</v>
+      </c>
+      <c r="C24" t="n">
+        <v>25.6170894254467</v>
+      </c>
+      <c r="D24" t="n">
+        <v>92.42728001598763</v>
+      </c>
+      <c r="E24" t="n">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B24" t="n">
-        <v>75.74208014624969</v>
-      </c>
-      <c r="C24" t="n">
-        <v>44.70388373574232</v>
-      </c>
-      <c r="D24" t="n">
-        <v>107.5759615910184</v>
-      </c>
-      <c r="E24" t="n">
-        <v>48</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B25" t="n">
-        <v>56.22373958739172</v>
+        <v>80.00990581320706</v>
       </c>
       <c r="C25" t="n">
-        <v>24.62157567914234</v>
+        <v>48.37591120409154</v>
       </c>
       <c r="D25" t="n">
-        <v>88.05852789712948</v>
+        <v>110.6010760868044</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>44985</v>
@@ -953,201 +953,181 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44992</v>
+        <v>44999</v>
       </c>
       <c r="B26" t="n">
-        <v>78.73457413440516</v>
+        <v>74.38952129655422</v>
       </c>
       <c r="C26" t="n">
-        <v>44.14362992875614</v>
+        <v>41.65767725529796</v>
       </c>
       <c r="D26" t="n">
-        <v>111.3074690122984</v>
+        <v>107.2371371008582</v>
       </c>
       <c r="E26" t="n">
         <v>48</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44985</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B27" t="n">
+        <v>74.24077650939944</v>
+      </c>
+      <c r="C27" t="n">
+        <v>42.13710822395137</v>
+      </c>
+      <c r="D27" t="n">
+        <v>108.8285637737189</v>
+      </c>
+      <c r="E27" t="n">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>73.70377019293714</v>
-      </c>
-      <c r="C27" t="n">
-        <v>41.91308360979909</v>
-      </c>
-      <c r="D27" t="n">
-        <v>107.8233999871936</v>
-      </c>
-      <c r="E27" t="n">
-        <v>48</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60.41679110379222</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.34414240475087</v>
+      </c>
+      <c r="D28" t="n">
+        <v>94.92591465234592</v>
+      </c>
+      <c r="E28" t="n">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B28" t="n">
-        <v>74.83204277680231</v>
-      </c>
-      <c r="C28" t="n">
-        <v>43.61533841039918</v>
-      </c>
-      <c r="D28" t="n">
-        <v>106.3023793688369</v>
-      </c>
-      <c r="E28" t="n">
-        <v>30</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B29" t="n">
+        <v>47.83443611810151</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.55771969367533</v>
+      </c>
+      <c r="D29" t="n">
+        <v>84.1121046324461</v>
+      </c>
+      <c r="E29" t="n">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B29" t="n">
-        <v>61.06840357279182</v>
-      </c>
-      <c r="C29" t="n">
-        <v>28.04207061375534</v>
-      </c>
-      <c r="D29" t="n">
-        <v>96.66187271244557</v>
-      </c>
-      <c r="E29" t="n">
-        <v>48</v>
-      </c>
-      <c r="F29" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B30" t="n">
+        <v>49.96877816981146</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17.88988776318612</v>
+      </c>
+      <c r="D30" t="n">
+        <v>81.85266008635884</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66</v>
+      </c>
+      <c r="F30" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B30" t="n">
-        <v>48.81411257166507</v>
-      </c>
-      <c r="C30" t="n">
-        <v>16.84831582858276</v>
-      </c>
-      <c r="D30" t="n">
-        <v>83.0095564338982</v>
-      </c>
-      <c r="E30" t="n">
-        <v>102</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B31" t="n">
+        <v>55.53307153083961</v>
+      </c>
+      <c r="C31" t="n">
+        <v>20.78395233924339</v>
+      </c>
+      <c r="D31" t="n">
+        <v>90.76990493581816</v>
+      </c>
+      <c r="E31" t="n">
+        <v>132</v>
+      </c>
+      <c r="F31" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B31" t="n">
-        <v>50.68014340952328</v>
-      </c>
-      <c r="C31" t="n">
-        <v>18.59200553094302</v>
-      </c>
-      <c r="D31" t="n">
-        <v>83.00602583985493</v>
-      </c>
-      <c r="E31" t="n">
-        <v>66</v>
-      </c>
-      <c r="F31" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B32" t="n">
+        <v>47.07209191664452</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.09089564255965</v>
+      </c>
+      <c r="D32" t="n">
+        <v>80.95233832428825</v>
+      </c>
+      <c r="E32" t="n">
+        <v>174</v>
+      </c>
+      <c r="F32" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B32" t="n">
-        <v>56.21008871964865</v>
-      </c>
-      <c r="C32" t="n">
-        <v>23.57951403042304</v>
-      </c>
-      <c r="D32" t="n">
-        <v>87.24623930602539</v>
-      </c>
-      <c r="E32" t="n">
-        <v>132</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B33" t="n">
-        <v>48.81274227713457</v>
+        <v>81.90141383921676</v>
       </c>
       <c r="C33" t="n">
-        <v>15.67948048471095</v>
+        <v>49.00068413937841</v>
       </c>
       <c r="D33" t="n">
-        <v>82.92594417233579</v>
+        <v>118.7953251538466</v>
       </c>
       <c r="E33" t="n">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B34" t="n">
-        <v>82.77930492426026</v>
+        <v>31.27570709239706</v>
       </c>
       <c r="C34" t="n">
-        <v>47.14024200319515</v>
+        <v>-3.035689731833081</v>
       </c>
       <c r="D34" t="n">
-        <v>116.1329179879964</v>
+        <v>64.60912222754352</v>
       </c>
       <c r="E34" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B35" t="n">
-        <v>30.65900887243849</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-5.682156842373755</v>
-      </c>
-      <c r="D35" t="n">
-        <v>64.72165108561092</v>
-      </c>
-      <c r="E35" t="n">
-        <v>48</v>
-      </c>
-      <c r="F35" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1217,22 +1197,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>972.8477197050793</v>
+        <v>1021.212615731619</v>
       </c>
       <c r="C2" t="n">
-        <v>31.19050688438838</v>
+        <v>31.95641744206661</v>
       </c>
       <c r="D2" t="n">
-        <v>27.07716422848716</v>
+        <v>27.56212315355437</v>
       </c>
       <c r="E2" t="n">
-        <v>2.723276260121286</v>
+        <v>2.750394754927895</v>
       </c>
       <c r="F2" t="n">
-        <v>1.721849304076814</v>
+        <v>1.781161775492653</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9070026100032424</v>
+        <v>0.9083010437340469</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
@@ -1243,22 +1223,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>5755.157218165455</v>
+        <v>5946.158369627505</v>
       </c>
       <c r="C3" t="n">
-        <v>75.86275250849691</v>
+        <v>77.11133749084829</v>
       </c>
       <c r="D3" t="n">
-        <v>59.05992246529348</v>
+        <v>60.35713005669418</v>
       </c>
       <c r="E3" t="n">
-        <v>1.285999671979119</v>
+        <v>1.307629379975115</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7194669984072726</v>
+        <v>0.7294707361112384</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8515894901591454</v>
+        <v>0.8752252384107888</v>
       </c>
       <c r="H3" t="n">
         <v>0.5</v>
@@ -1269,25 +1249,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1537.096913096369</v>
+        <v>1601.734063641369</v>
       </c>
       <c r="C4" t="n">
-        <v>39.20582754000186</v>
+        <v>40.02166992569612</v>
       </c>
       <c r="D4" t="n">
-        <v>31.62843394834492</v>
+        <v>32.1898958036298</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6414169143175433</v>
+        <v>0.6444663753463136</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5354952123528571</v>
+        <v>0.5404083168484128</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5115767010143722</v>
+        <v>0.5210094200810337</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6296296296296298</v>
+        <v>0.5769230769230766</v>
       </c>
     </row>
   </sheetData>
